--- a/data/analyze.xlsx
+++ b/data/analyze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\filter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E111D59B-AF38-44B6-A7E2-551854D73B0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E962838E-2C6A-4A7E-ABD1-1F476C0E7581}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9495"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>search time (per 1000 time)</t>
-  </si>
   <si>
     <t>欄1</t>
   </si>
@@ -68,6 +65,10 @@
   </si>
   <si>
     <t>信賴度(95.0%)</t>
+  </si>
+  <si>
+    <t>search time (A total of 1000 rounds were run, and the keywords were filtered 1000 times per a round.)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1051,14 +1052,14 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1066,7 +1067,7 @@
         <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1082,7 +1083,7 @@
         <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>98.911000000000001</v>
@@ -1093,7 +1094,7 @@
         <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>0.38233919791496945</v>
@@ -1104,7 +1105,7 @@
         <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>96</v>
@@ -1115,7 +1116,7 @@
         <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>92</v>
@@ -1126,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>12.090627041732045</v>
@@ -1137,7 +1138,7 @@
         <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
         <v>146.18326226226216</v>
@@ -1148,7 +1149,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>48.176082220954143</v>
@@ -1159,7 +1160,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>5.5766387584483468</v>
@@ -1170,7 +1171,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>162</v>
@@ -1181,7 +1182,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>89</v>
@@ -1192,7 +1193,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
         <v>251</v>
@@ -1203,7 +1204,7 @@
         <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
         <v>98911</v>
@@ -1214,7 +1215,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1">
         <v>1000</v>
@@ -1225,7 +1226,7 @@
         <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
         <v>0.75028006028505734</v>

--- a/data/analyze.xlsx
+++ b/data/analyze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\filter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E962838E-2C6A-4A7E-ABD1-1F476C0E7581}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B57E8A8-A162-4E6C-9749-F5EF96E45BDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9495"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>信賴度(95.0%)</t>
   </si>
   <si>
-    <t>search time (A total of 1000 rounds were run, and the keywords were filtered 1000 times per a round.)</t>
+    <t>search time (ms) (a round per 1000 time)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -529,26 +529,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,18 +661,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1052,12 +1023,12 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1066,26 +1037,23 @@
       <c r="A2">
         <v>153</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>109</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>92</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>98.911000000000001</v>
       </c>
     </row>
@@ -1093,21 +1061,21 @@
       <c r="A5">
         <v>94</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.38233919791496945</v>
+      <c r="G5">
+        <v>0.38233919799999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>93</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>96</v>
       </c>
     </row>
@@ -1115,10 +1083,10 @@
       <c r="A7">
         <v>98</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>92</v>
       </c>
     </row>
@@ -1126,54 +1094,54 @@
       <c r="A8">
         <v>98</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
-        <v>12.090627041732045</v>
+      <c r="G8">
+        <v>12.090627039999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>101</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
-        <v>146.18326226226216</v>
+      <c r="G9">
+        <v>146.1832623</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>129</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
-        <v>48.176082220954143</v>
+      <c r="G10">
+        <v>48.176082219999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>104</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1">
-        <v>5.5766387584483468</v>
+      <c r="G11">
+        <v>5.5766387579999996</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>90</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>162</v>
       </c>
     </row>
@@ -1181,10 +1149,10 @@
       <c r="A13">
         <v>101</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>89</v>
       </c>
     </row>
@@ -1192,10 +1160,10 @@
       <c r="A14">
         <v>91</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>251</v>
       </c>
     </row>
@@ -1203,10 +1171,10 @@
       <c r="A15">
         <v>93</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>98911</v>
       </c>
     </row>
@@ -1214,22 +1182,22 @@
       <c r="A16">
         <v>92</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>96</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.75028006028505734</v>
+      <c r="G17">
+        <v>0.75028006000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">

--- a/data/analyze.xlsx
+++ b/data/analyze.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\filter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B57E8A8-A162-4E6C-9749-F5EF96E45BDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A2B5CC65-392E-41B2-8C1C-D1B265C7A165}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="analyze" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId1"/>
+    <sheet name="analyze" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>欄1</t>
   </si>
@@ -67,7 +68,11 @@
     <t>信賴度(95.0%)</t>
   </si>
   <si>
-    <t>search time (ms) (a round per 1000 time)</t>
+    <t>總共有1000個回合，每回合search了1000次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu為單核心，可以看出來所花的時間非常少.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -529,6 +534,26 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,9 +686,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1020,5104 +1054,5251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.7772853868255678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24.579922143338301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>604.17257257257256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>961.0798838824046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30.736516257913642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.5252993417009735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>153</v>
-      </c>
-      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>98.911000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0.38233919799999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D7" s="1">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.7772853868255678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>12.090627039999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D11" s="1">
+        <v>24.579922143338301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>146.1832623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D12" s="1">
+        <v>604.17257257257256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>48.176082219999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>104</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D13" s="1">
+        <v>961.0798838824046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>5.5766387579999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D14" s="1">
+        <v>30.736516257913642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D15" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D17" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
-        <v>98911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D18" s="1">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="D19" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17">
-        <v>0.75028006000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D20" s="2">
+        <v>1.5252993417009735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>93</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>129</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267">
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A324">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A325">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A326">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A328">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A329">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A330">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A331">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A332">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A333">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A334">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A335">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A336">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A337">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A361">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A365">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A366">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A367">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A368">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A369">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A370">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A371">
-        <v>158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A372">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A373">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A374">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A375">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A376">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A377">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A378">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A379">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A380">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A381">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A382">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A383">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A384">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A385">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A386">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A387">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A388">
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A389">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A390">
-        <v>122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A392">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A393">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A394">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A395">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A396">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A397">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A398">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A399">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A400">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A401">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A402">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A403">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A404">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A405">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A406">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A407">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A408">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A409">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A410">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A411">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A412">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A413">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A414">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A415">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A416">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A417">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A418">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A419">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A420">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A421">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A422">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A423">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A424">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A425">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A426">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A427">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A428">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A429">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A430">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A431">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A432">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A433">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A434">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A435">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A436">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A437">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A438">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A439">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A440">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A441">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A442">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A443">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A444">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A445">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A446">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A447">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A448">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A449">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A450">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A451">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A452">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A453">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A454">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A455">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A456">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A457">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A458">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A459">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A460">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A461">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A462">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A463">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A464">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A465">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A466">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A467">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A468">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A469">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A470">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A471">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A472">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A473">
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A474">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A475">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A476">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A477">
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A478">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A479">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A480">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A481">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A482">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A483">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A484">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A485">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A486">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A487">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A488">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A489">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A490">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A491">
-        <v>251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A492">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A493">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A494">
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A495">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A496">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A497">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A498">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A499">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A500">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A501">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A502">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A503">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A504">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A505">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A506">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A507">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A508">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A509">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A510">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A511">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A512">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A513">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A514">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A515">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A516">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A517">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A518">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A519">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A520">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A521">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A522">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A523">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A524">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A525">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A526">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A527">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A528">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A529">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A530">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A531">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A532">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A533">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A534">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A535">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A536">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A537">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A538">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A539">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A540">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A541">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A542">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A543">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A544">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A545">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A546">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A547">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A548">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A549">
-        <v>228</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A550">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A551">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A552">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A553">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A554">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A555">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A556">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A557">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A558">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A559">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A560">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A561">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A562">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A563">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A564">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A565">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A566">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A567">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A568">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A569">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A570">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A571">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A572">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A573">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A574">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A575">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A576">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A577">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A578">
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A579">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A580">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A581">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A582">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A583">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A584">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A585">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A586">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A587">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A588">
-        <v>122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A589">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A590">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A591">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A592">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A593">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A594">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A595">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A596">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A597">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A598">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A599">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A600">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A601">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A602">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A603">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A604">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A605">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A606">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A607">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A608">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A609">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A610">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A611">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A612">
-        <v>126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A613">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A614">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A615">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A616">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A617">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A618">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A619">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A620">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A621">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A622">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A623">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A624">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A625">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A626">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A627">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A628">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A629">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A630">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A631">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A632">
-        <v>155</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A633">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A634">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A635">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A636">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A637">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A638">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A639">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A640">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A641">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A642">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A643">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A644">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A645">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A646">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A647">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A648">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A649">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A650">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A651">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A652">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A653">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A654">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A655">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A656">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A657">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A658">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A659">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A660">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A661">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A662">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A663">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A664">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A665">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A666">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A667">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A668">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A669">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A670">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A671">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A672">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A673">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A674">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A675">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A676">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A677">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A678">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A679">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A680">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A681">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A682">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A683">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A684">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A685">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A686">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A687">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A688">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A689">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A690">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A691">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A692">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A693">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A694">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A695">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A696">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A697">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A698">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A699">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A700">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A701">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A702">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A703">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A704">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A705">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A706">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A707">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A708">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A709">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A710">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A711">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A712">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A713">
-        <v>131</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A714">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A715">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A716">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A717">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A718">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A719">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A720">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A721">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A722">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A723">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A724">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A725">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A726">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A727">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A728">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A729">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A730">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A731">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A732">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A733">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A734">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A735">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A736">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A737">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A738">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A739">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A740">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A741">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A742">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A743">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A744">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A745">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A746">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A747">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A748">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A749">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A750">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A751">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A752">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A753">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A754">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A755">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A756">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A757">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A758">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A759">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A760">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A761">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A762">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A763">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A764">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A765">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A766">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A767">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A768">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A769">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A770">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A771">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A772">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A773">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A774">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A775">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A776">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A777">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A778">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A779">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A780">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A781">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A782">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A783">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A784">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A785">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A786">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A787">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A788">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A789">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A790">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A791">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A792">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A793">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A794">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A795">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A796">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A797">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A798">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A799">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A800">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A801">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A802">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A803">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A804">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A805">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A806">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A807">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A808">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A809">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A810">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A811">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A812">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A813">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A814">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A815">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A816">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A817">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A818">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A819">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A820">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A821">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A822">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A823">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A824">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A825">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A826">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A827">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A828">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A829">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A830">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A831">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A832">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A833">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A834">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A835">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A836">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A837">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A838">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A839">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A840">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A841">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A842">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A843">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A844">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A845">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A846">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A847">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A848">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A849">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A850">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A851">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A852">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A853">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A854">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A855">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A856">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A857">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A858">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A859">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A860">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A861">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A862">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A863">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A864">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A865">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A866">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A867">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A868">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A869">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A870">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A871">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A872">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A873">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A874">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A875">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A876">
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A877">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A878">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A879">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A880">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A881">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A882">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A883">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A884">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A885">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A886">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A887">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A888">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A889">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A890">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A891">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A892">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A893">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A894">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A895">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A896">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A897">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A898">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A899">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A900">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A901">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A902">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A903">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A904">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A905">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A906">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A907">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A908">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A909">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A910">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A911">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A912">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A913">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A914">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A915">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A916">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A917">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A918">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A919">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A920">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A921">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A922">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A923">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A924">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A925">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A926">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A927">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A928">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A929">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A930">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A931">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A932">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A933">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A934">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A935">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A936">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A937">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A938">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A939">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A940">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A941">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A942">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A943">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A944">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A945">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A946">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A947">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A948">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A949">
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A950">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A951">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A952">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A953">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A954">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A955">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A956">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A957">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A958">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A959">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A960">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A961">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A962">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A963">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A964">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A965">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A966">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A967">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A968">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A969">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A970">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A971">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A972">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A973">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A974">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A975">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A976">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A977">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A978">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A979">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A980">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A981">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A982">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A983">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A984">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A985">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A986">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A987">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A988">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A989">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A990">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A991">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A992">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A993">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A994">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A995">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A996">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A997">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A998">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A999">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1000">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1001">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
